--- a/GradeDistributionsDB/Spring2014/Output/Spring2014 GE.xlsx
+++ b/GradeDistributionsDB/Spring2014/Output/Spring2014 GE.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="519">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>ATMO-201</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
     <t>1.10%</t>
   </si>
   <si>
+    <t>1.63%</t>
+  </si>
+  <si>
     <t>EPIFANIO C</t>
   </si>
   <si>
@@ -73,6 +79,9 @@
     <t>0.00%</t>
   </si>
   <si>
+    <t>4.76%</t>
+  </si>
+  <si>
     <t>SCHADE G</t>
   </si>
   <si>
@@ -85,6 +94,9 @@
     <t>2.78%</t>
   </si>
   <si>
+    <t>10.00%</t>
+  </si>
+  <si>
     <t>BOWMAN K</t>
   </si>
   <si>
@@ -100,6 +112,9 @@
     <t>4.35%</t>
   </si>
   <si>
+    <t>9.80%</t>
+  </si>
+  <si>
     <t>ATMO-202</t>
   </si>
   <si>
@@ -118,6 +133,9 @@
     <t>3.21%</t>
   </si>
   <si>
+    <t>5.22%</t>
+  </si>
+  <si>
     <t>ATMO-203</t>
   </si>
   <si>
@@ -145,6 +163,9 @@
     <t>6.25%</t>
   </si>
   <si>
+    <t>11.11%</t>
+  </si>
+  <si>
     <t>ATMO-352</t>
   </si>
   <si>
@@ -172,6 +193,9 @@
     <t>16.67%</t>
   </si>
   <si>
+    <t>2.70%</t>
+  </si>
+  <si>
     <t>ATMO-441</t>
   </si>
   <si>
@@ -211,9 +235,6 @@
     <t>90.00%</t>
   </si>
   <si>
-    <t>10.00%</t>
-  </si>
-  <si>
     <t>FRANZ K</t>
   </si>
   <si>
@@ -298,6 +319,9 @@
     <t>5.83%</t>
   </si>
   <si>
+    <t>2.44%</t>
+  </si>
+  <si>
     <t>LEMMONS K</t>
   </si>
   <si>
@@ -316,6 +340,9 @@
     <t>2.31%</t>
   </si>
   <si>
+    <t>2.99%</t>
+  </si>
+  <si>
     <t>GEOG-202</t>
   </si>
   <si>
@@ -337,6 +364,9 @@
     <t>0.83%</t>
   </si>
   <si>
+    <t>2.16%</t>
+  </si>
+  <si>
     <t>PATZEWITSCH W</t>
   </si>
   <si>
@@ -355,6 +385,9 @@
     <t>1.26%</t>
   </si>
   <si>
+    <t>3.17%</t>
+  </si>
+  <si>
     <t>JOSLIN A</t>
   </si>
   <si>
@@ -379,6 +412,9 @@
     <t>10.71%</t>
   </si>
   <si>
+    <t>3.45%</t>
+  </si>
+  <si>
     <t>GEOG-203</t>
   </si>
   <si>
@@ -400,6 +436,9 @@
     <t>5.04%</t>
   </si>
   <si>
+    <t>8.46%</t>
+  </si>
+  <si>
     <t>NAITO A</t>
   </si>
   <si>
@@ -424,6 +463,9 @@
     <t>1.57%</t>
   </si>
   <si>
+    <t>4.50%</t>
+  </si>
+  <si>
     <t>GUNERALP I</t>
   </si>
   <si>
@@ -442,6 +484,9 @@
     <t>5.52%</t>
   </si>
   <si>
+    <t>4.12%</t>
+  </si>
+  <si>
     <t>GEOG-205</t>
   </si>
   <si>
@@ -490,6 +535,9 @@
     <t>2.07%</t>
   </si>
   <si>
+    <t>5.84%</t>
+  </si>
+  <si>
     <t>GEOG-304</t>
   </si>
   <si>
@@ -523,6 +571,9 @@
     <t>4.49%</t>
   </si>
   <si>
+    <t>2.20%</t>
+  </si>
+  <si>
     <t>GEOG-306</t>
   </si>
   <si>
@@ -544,6 +595,9 @@
     <t>3.28%</t>
   </si>
   <si>
+    <t>10.29%</t>
+  </si>
+  <si>
     <t>GEOG-320</t>
   </si>
   <si>
@@ -559,6 +613,9 @@
     <t>2.13%</t>
   </si>
   <si>
+    <t>6.00%</t>
+  </si>
+  <si>
     <t>GEOG-324</t>
   </si>
   <si>
@@ -586,6 +643,9 @@
     <t>26.56%</t>
   </si>
   <si>
+    <t>4.48%</t>
+  </si>
+  <si>
     <t>GEOG-330</t>
   </si>
   <si>
@@ -604,9 +664,6 @@
     <t>1.59%</t>
   </si>
   <si>
-    <t>3.17%</t>
-  </si>
-  <si>
     <t>GEOG-331</t>
   </si>
   <si>
@@ -622,6 +679,9 @@
     <t>6.06%</t>
   </si>
   <si>
+    <t>2.94%</t>
+  </si>
+  <si>
     <t>GEOG-352</t>
   </si>
   <si>
@@ -640,9 +700,6 @@
     <t>38.10%</t>
   </si>
   <si>
-    <t>4.76%</t>
-  </si>
-  <si>
     <t>GEOG-380</t>
   </si>
   <si>
@@ -673,6 +730,9 @@
     <t>3.49%</t>
   </si>
   <si>
+    <t>11.34%</t>
+  </si>
+  <si>
     <t>GEOG-401</t>
   </si>
   <si>
@@ -685,6 +745,9 @@
     <t>10.34%</t>
   </si>
   <si>
+    <t>6.45%</t>
+  </si>
+  <si>
     <t>GEOG-406</t>
   </si>
   <si>
@@ -715,6 +778,9 @@
     <t>7.14%</t>
   </si>
   <si>
+    <t>4.55%</t>
+  </si>
+  <si>
     <t>GEOG-450</t>
   </si>
   <si>
@@ -787,6 +853,9 @@
     <t>13.04%</t>
   </si>
   <si>
+    <t>14.81%</t>
+  </si>
+  <si>
     <t>GEOG-689</t>
   </si>
   <si>
@@ -805,6 +874,9 @@
     <t>0.70%</t>
   </si>
   <si>
+    <t>3.38%</t>
+  </si>
+  <si>
     <t>HOPF F</t>
   </si>
   <si>
@@ -823,6 +895,9 @@
     <t>2.17%</t>
   </si>
   <si>
+    <t>3.16%</t>
+  </si>
+  <si>
     <t>YANCEY T</t>
   </si>
   <si>
@@ -838,6 +913,9 @@
     <t>4.92%</t>
   </si>
   <si>
+    <t>8.27%</t>
+  </si>
+  <si>
     <t>VAN B</t>
   </si>
   <si>
@@ -856,6 +934,9 @@
     <t>2.10%</t>
   </si>
   <si>
+    <t>5.30%</t>
+  </si>
+  <si>
     <t>BENAVIDES I</t>
   </si>
   <si>
@@ -865,12 +946,12 @@
     <t>45.52%</t>
   </si>
   <si>
-    <t>3.45%</t>
-  </si>
-  <si>
     <t>0.69%</t>
   </si>
   <si>
+    <t>2.03%</t>
+  </si>
+  <si>
     <t>GEOL-104</t>
   </si>
   <si>
@@ -889,6 +970,9 @@
     <t>1.65%</t>
   </si>
   <si>
+    <t>5.47%</t>
+  </si>
+  <si>
     <t>GEOL-106</t>
   </si>
   <si>
@@ -901,6 +985,9 @@
     <t>4.07%</t>
   </si>
   <si>
+    <t>2.82%</t>
+  </si>
+  <si>
     <t>GEOL-203</t>
   </si>
   <si>
@@ -919,6 +1006,9 @@
     <t>2.08%</t>
   </si>
   <si>
+    <t>2.04%</t>
+  </si>
+  <si>
     <t>GEOL-302</t>
   </si>
   <si>
@@ -928,6 +1018,9 @@
     <t>30.95%</t>
   </si>
   <si>
+    <t>1.18%</t>
+  </si>
+  <si>
     <t>GEOL-306</t>
   </si>
   <si>
@@ -940,6 +1033,9 @@
     <t>4.29%</t>
   </si>
   <si>
+    <t>4.11%</t>
+  </si>
+  <si>
     <t>GEOL-309</t>
   </si>
   <si>
@@ -958,6 +1054,9 @@
     <t>10.20%</t>
   </si>
   <si>
+    <t>2.00%</t>
+  </si>
+  <si>
     <t>GEOL-310</t>
   </si>
   <si>
@@ -1012,6 +1111,9 @@
     <t>9.84%</t>
   </si>
   <si>
+    <t>4.69%</t>
+  </si>
+  <si>
     <t>GEOL-320</t>
   </si>
   <si>
@@ -1057,6 +1159,9 @@
     <t>0.91%</t>
   </si>
   <si>
+    <t>0.90%</t>
+  </si>
+  <si>
     <t>GEOL-410</t>
   </si>
   <si>
@@ -1069,6 +1174,9 @@
     <t>17.14%</t>
   </si>
   <si>
+    <t>7.89%</t>
+  </si>
+  <si>
     <t>GEOL-420</t>
   </si>
   <si>
@@ -1123,9 +1231,6 @@
     <t>56.00%</t>
   </si>
   <si>
-    <t>2.00%</t>
-  </si>
-  <si>
     <t>GEOL-621</t>
   </si>
   <si>
@@ -1177,6 +1282,9 @@
     <t>GEOP-620</t>
   </si>
   <si>
+    <t>8.70%</t>
+  </si>
+  <si>
     <t>GEOP-651</t>
   </si>
   <si>
@@ -1216,9 +1324,6 @@
     <t>COLLINS D</t>
   </si>
   <si>
-    <t>11.11%</t>
-  </si>
-  <si>
     <t>GEOS-410</t>
   </si>
   <si>
@@ -1261,6 +1366,9 @@
     <t>63.16%</t>
   </si>
   <si>
+    <t>3.80%</t>
+  </si>
+  <si>
     <t>STOESSEL A</t>
   </si>
   <si>
@@ -1270,9 +1378,6 @@
     <t>26.00%</t>
   </si>
   <si>
-    <t>6.00%</t>
-  </si>
-  <si>
     <t>KUEHL J</t>
   </si>
   <si>
@@ -1291,6 +1396,9 @@
     <t>2.06%</t>
   </si>
   <si>
+    <t>1.02%</t>
+  </si>
+  <si>
     <t>GIESE B</t>
   </si>
   <si>
@@ -1315,9 +1423,6 @@
     <t>45.36%</t>
   </si>
   <si>
-    <t>4.12%</t>
-  </si>
-  <si>
     <t>50.75%</t>
   </si>
   <si>
@@ -1327,6 +1432,9 @@
     <t>8.96%</t>
   </si>
   <si>
+    <t>1.47%</t>
+  </si>
+  <si>
     <t>GARDNER W</t>
   </si>
   <si>
@@ -1351,6 +1459,9 @@
     <t>34.29%</t>
   </si>
   <si>
+    <t>11.39%</t>
+  </si>
+  <si>
     <t>COLE K</t>
   </si>
   <si>
@@ -1366,9 +1477,6 @@
     <t>4.41%</t>
   </si>
   <si>
-    <t>1.47%</t>
-  </si>
-  <si>
     <t>OCNG-252</t>
   </si>
   <si>
@@ -1390,6 +1498,9 @@
     <t>1.13%</t>
   </si>
   <si>
+    <t>1.34%</t>
+  </si>
+  <si>
     <t>OCNG-401</t>
   </si>
   <si>
@@ -1399,13 +1510,13 @@
     <t>65.91%</t>
   </si>
   <si>
-    <t>4.55%</t>
-  </si>
-  <si>
     <t>2.27%</t>
   </si>
   <si>
     <t>OCNG-410</t>
+  </si>
+  <si>
+    <t>15.38%</t>
   </si>
   <si>
     <t>OCNG-420</t>
@@ -1497,12 +1608,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1796,15 +1906,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H331"/>
+  <dimension ref="A1:I331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1829,3477 +1939,3867 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>3.595</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="B5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
         <v>2.861</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
         <v>3.087</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" t="n">
         <v>3.1024</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C12" t="n">
         <v>3.3575</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C15" t="n">
         <v>3.25</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="B18" t="s">
         <v>41</v>
-      </c>
-      <c r="F15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="B18" t="s">
-        <v>35</v>
       </c>
       <c r="C18" t="n">
         <v>3.181</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="B21" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C21" t="n">
         <v>2.639</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="B24" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C24" t="n">
         <v>3.182</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="B27" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C27" t="n">
         <v>3.824</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E27" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="B30" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C30" t="n">
         <v>3.5</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="B33" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C33" t="n">
         <v>3.7</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G33" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="B34" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C34" t="n">
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="B37" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C37" t="n">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H37" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="B40" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C40" t="n">
         <v>3.692</v>
       </c>
       <c r="D40" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E40" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H40" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="B43" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C43" t="n">
         <v>3.533</v>
       </c>
       <c r="D43" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F43" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H43" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="B46" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C46" t="n">
         <v>3.6</v>
       </c>
       <c r="D46" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E46" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H46" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="B49" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C49" t="n">
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H49" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="B52" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C52" t="n">
         <v>3.857</v>
       </c>
       <c r="D52" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E52" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G52" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H52" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="B55" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C55" t="n">
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E55" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G55" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H55" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="B58" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C58" t="n">
         <v>2.567</v>
       </c>
       <c r="D58" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E58" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F58" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G58" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="H58" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I58" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="B59" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C59" t="n">
         <v>2.831</v>
       </c>
       <c r="D59" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E59" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F59" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G59" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="H59" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>107</v>
+      </c>
+      <c r="I59" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="B62" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C62" t="n">
         <v>3.2105</v>
       </c>
       <c r="D62" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E62" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="F62" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G62" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="H62" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I62" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="B63" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C63" t="n">
         <v>2.962</v>
       </c>
       <c r="D63" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E63" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="F63" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G63" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="H63" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I63" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="B64" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C64" t="n">
         <v>2.954</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E64" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F64" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G64" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="H64" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I64" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="B65" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C65" t="n">
         <v>2.75</v>
       </c>
       <c r="D65" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="E65" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F65" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G65" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="H65" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I65" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="B68" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C68" t="n">
         <v>2.5985</v>
       </c>
       <c r="D68" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="E68" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="F68" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="G68" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="H68" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>139</v>
+      </c>
+      <c r="I68" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="B69" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C69" t="n">
         <v>2.954</v>
       </c>
       <c r="D69" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E69" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="F69" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G69" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H69" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I69" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="B70" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="C70" t="n">
         <v>2.7249</v>
       </c>
       <c r="D70" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="E70" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="F70" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="G70" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="H70" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I70" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="B71" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="C71" t="n">
         <v>2.7117</v>
       </c>
       <c r="D71" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="E71" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="F71" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="G71" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="H71" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I71" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="B74" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="C74" t="n">
         <v>3.036</v>
       </c>
       <c r="D74" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="G74" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="H74" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I74" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="B77" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="C77" t="n">
         <v>3.546</v>
       </c>
       <c r="D77" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="E77" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="F77" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="G77" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H77" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I77" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="B80" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="C80" t="n">
         <v>2.745</v>
       </c>
       <c r="D80" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="E80" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="F80" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="G80" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="H80" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>172</v>
+      </c>
+      <c r="I80" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="B83" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C83" t="n">
         <v>2.859</v>
       </c>
       <c r="D83" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="E83" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="F83" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="G83" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="H83" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>179</v>
+      </c>
+      <c r="I83" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="B86" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C86" t="n">
         <v>2.966</v>
       </c>
       <c r="D86" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="E86" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="F86" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="G86" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="H86" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I86" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="B89" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C89" t="n">
         <v>2.656</v>
       </c>
       <c r="D89" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="E89" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="F89" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="G89" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="H89" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>192</v>
+      </c>
+      <c r="I89" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="B92" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="C92" t="n">
         <v>2.936</v>
       </c>
       <c r="D92" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="F92" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="G92" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H92" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>198</v>
+      </c>
+      <c r="I92" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="B95" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="C95" t="n">
         <v>2.579</v>
       </c>
       <c r="D95" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="G95" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H95" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>204</v>
+      </c>
+      <c r="I95" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="B98" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="C98" t="n">
         <v>2.969</v>
       </c>
       <c r="D98" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="E98" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="F98" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="G98" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="H98" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I98" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="B101" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="C101" t="n">
         <v>3.079</v>
       </c>
       <c r="D101" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="E101" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F101" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="G101" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="H101" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>123</v>
+      </c>
+      <c r="I101" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="B104" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="C104" t="n">
         <v>3</v>
       </c>
       <c r="D104" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="E104" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F104" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G104" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="H104" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>220</v>
+      </c>
+      <c r="I104" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="B107" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="C107" t="n">
         <v>3.722</v>
       </c>
       <c r="D107" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="E107" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="F107" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G107" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H107" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I107" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="B110" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="C110" t="n">
         <v>2.81</v>
       </c>
       <c r="D110" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="E110" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="F110" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G110" t="s">
-        <v>208</v>
+        <v>21</v>
       </c>
       <c r="H110" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I110" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="B113" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="C113" t="n">
         <v>3.81</v>
       </c>
       <c r="D113" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="E113" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="F113" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G113" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H113" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I113" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="B116" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="C116" t="n">
         <v>2.8095</v>
       </c>
       <c r="D116" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="E116" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="F116" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="G116" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="H116" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>237</v>
+      </c>
+      <c r="I116" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="B119" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C119" t="n">
         <v>3.138</v>
       </c>
       <c r="D119" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="E119" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="F119" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="G119" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H119" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I119" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="B122" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C122" t="n">
         <v>3.312</v>
       </c>
       <c r="D122" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="E122" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="F122" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="G122" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H122" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I122" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="B125" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C125" t="n">
         <v>3.077</v>
       </c>
       <c r="D125" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E125" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="F125" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="G125" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="H125" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I125" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="B128" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="C128" t="n">
         <v>2.738</v>
       </c>
       <c r="D128" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E128" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="F128" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="G128" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="H128" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I128" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="B131" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C131" t="n">
         <v>2.95</v>
       </c>
       <c r="D131" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="E131" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="F131" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G131" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H131" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I131" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="B134" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="C134" t="n">
         <v>2.5603</v>
       </c>
       <c r="D134" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E134" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F134" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="G134" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="H134" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I134" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="B137" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="C137" t="n">
         <v>3.722</v>
       </c>
       <c r="D137" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="E137" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F137" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="G137" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H137" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I137" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="B140" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="C140" t="n">
         <v>3.875</v>
       </c>
       <c r="D140" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="E140" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="F140" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G140" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H140" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I140" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="B143" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="C143" t="n">
         <v>3.4</v>
       </c>
       <c r="D143" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E143" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="F143" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="G143" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H143" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I143" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="B146" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="C146" t="n">
         <v>3.9</v>
       </c>
       <c r="D146" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E146" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="F146" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G146" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H146" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I146" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="B149" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="C149" t="n">
         <v>3.143</v>
       </c>
       <c r="D149" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="E149" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="F149" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="G149" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H149" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I149" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="B152" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="C152" t="n">
         <v>3.261</v>
       </c>
       <c r="D152" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="E152" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="F152" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="G152" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H152" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I152" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="B155" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="C155" t="n">
         <v>3.6</v>
       </c>
       <c r="D155" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E155" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F155" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G155" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H155" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I155" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="B158" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C158" t="n">
         <v>2.7615</v>
       </c>
       <c r="D158" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="E158" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="F158" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G158" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="H158" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>285</v>
+      </c>
+      <c r="I158" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="B159" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="C159" t="n">
         <v>3.0676</v>
       </c>
       <c r="D159" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="E159" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="F159" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="G159" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="H159" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>292</v>
+      </c>
+      <c r="I159" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="B160" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="C160" t="n">
         <v>2.6002</v>
       </c>
       <c r="D160" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="E160" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="F160" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="G160" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="H160" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>192</v>
+      </c>
+      <c r="I160" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="B161" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="C161" t="n">
         <v>2.6925</v>
       </c>
       <c r="D161" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="E161" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="F161" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="G161" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="H161" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>305</v>
+      </c>
+      <c r="I161" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="B162" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="C162" t="n">
         <v>3.0145</v>
       </c>
       <c r="D162" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="E162" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="F162" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="G162" t="s">
-        <v>283</v>
+        <v>132</v>
       </c>
       <c r="H162" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>310</v>
+      </c>
+      <c r="I162" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="B165" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="C165" t="n">
         <v>2.4552</v>
       </c>
       <c r="D165" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E165" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="F165" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="G165" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="H165" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>317</v>
+      </c>
+      <c r="I165" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="B168" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="C168" t="n">
         <v>2.7741</v>
       </c>
       <c r="D168" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="E168" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="F168" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="G168" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="H168" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I168" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="B171" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="C171" t="n">
         <v>2.8737</v>
       </c>
       <c r="D171" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="E171" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="F171" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="G171" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="H171" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>329</v>
+      </c>
+      <c r="I171" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="B174" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="C174" t="n">
         <v>2.7382</v>
       </c>
       <c r="D174" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E174" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F174" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="G174" t="s">
-        <v>208</v>
+        <v>21</v>
       </c>
       <c r="H174" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I174" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="B177" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="C177" t="n">
         <v>3.5786</v>
       </c>
       <c r="D177" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="E177" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="F177" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="G177" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="H177" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I177" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="B180" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="C180" t="n">
         <v>2.722</v>
       </c>
       <c r="D180" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="E180" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="F180" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="G180" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="H180" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I180" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="B183" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="C183" t="n">
         <v>2.844</v>
       </c>
       <c r="D183" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="E183" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="F183" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="G183" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="H183" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I183" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="B186" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="C186" t="n">
         <v>3.5</v>
       </c>
       <c r="D186" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E186" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F186" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G186" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H186" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I186" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="B187" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="C187" t="n">
         <v>3.475</v>
       </c>
       <c r="D187" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="E187" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="F187" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="G187" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H187" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>357</v>
+      </c>
+      <c r="I187" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="B190" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="C190" t="n">
         <v>3.077</v>
       </c>
       <c r="D190" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="E190" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F190" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G190" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H190" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I190" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="B191" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="C191" t="n">
         <v>2.5082</v>
       </c>
       <c r="D191" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="E191" t="s">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="F191" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="G191" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="H191" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>298</v>
+      </c>
+      <c r="I191" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="B194" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="C194" t="n">
         <v>3.385</v>
       </c>
       <c r="D194" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E194" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="F194" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G194" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H194" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I194" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="B197" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="C197" t="n">
         <v>4</v>
       </c>
       <c r="D197" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E197" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F197" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G197" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H197" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I197" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="B200" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="C200" t="n">
         <v>3.6</v>
       </c>
       <c r="D200" t="s">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="E200" t="s">
-        <v>338</v>
+        <v>372</v>
       </c>
       <c r="F200" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G200" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H200" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I200" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="B203" t="s">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="C203" t="n">
         <v>2.3</v>
       </c>
       <c r="D203" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E203" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F203" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G203" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="H203" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I203" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="B206" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="C206" t="n">
         <v>2.9767</v>
       </c>
       <c r="D206" t="s">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="E206" t="s">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="F206" t="s">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="G206" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="H206" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>380</v>
+      </c>
+      <c r="I206" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="B209" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="C209" t="n">
         <v>2.686</v>
       </c>
       <c r="D209" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="E209" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F209" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="G209" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="H209" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I209" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="B212" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="C212" t="n">
         <v>3.451</v>
       </c>
       <c r="D212" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="E212" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F212" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G212" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H212" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I212" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="B215" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="C215" t="n">
         <v>2.585</v>
       </c>
       <c r="D215" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="E215" t="s">
-        <v>356</v>
+        <v>392</v>
       </c>
       <c r="F215" t="s">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="G215" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="H215" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I215" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="B218" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="C218" t="n">
         <v>4</v>
       </c>
       <c r="D218" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E218" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F218" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G218" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H218" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I218" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="B221" t="s">
-        <v>359</v>
+        <v>395</v>
       </c>
       <c r="C221" t="n">
         <v>4</v>
       </c>
       <c r="D221" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E221" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F221" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G221" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H221" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I221" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="B222" t="s">
-        <v>360</v>
+        <v>396</v>
       </c>
       <c r="C222" t="n">
         <v>3.556</v>
       </c>
       <c r="D222" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="E222" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="F222" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G222" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H222" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I222" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="B225" t="s">
-        <v>364</v>
+        <v>400</v>
       </c>
       <c r="C225" t="n">
         <v>3.6</v>
       </c>
       <c r="D225" t="s">
-        <v>365</v>
+        <v>401</v>
       </c>
       <c r="E225" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="F225" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="G225" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H225" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I225" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="B228" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="C228" t="n">
         <v>3.4155</v>
       </c>
       <c r="D228" t="s">
-        <v>367</v>
+        <v>403</v>
       </c>
       <c r="E228" t="s">
-        <v>368</v>
+        <v>404</v>
       </c>
       <c r="F228" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="G228" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H228" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I228" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="A230" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="B231" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="C231" t="n">
         <v>3.625</v>
       </c>
       <c r="D231" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="E231" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F231" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G231" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H231" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I231" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
       <c r="A233" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="B234" t="s">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="C234" t="n">
         <v>3.867</v>
       </c>
       <c r="D234" t="s">
-        <v>373</v>
+        <v>408</v>
       </c>
       <c r="E234" t="s">
-        <v>374</v>
+        <v>409</v>
       </c>
       <c r="F234" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G234" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H234" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I234" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
       <c r="A236" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="B237" t="s">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="C237" t="n">
         <v>4</v>
       </c>
       <c r="D237" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E237" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F237" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G237" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H237" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I237" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
       <c r="A239" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
       <c r="B240" t="s">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="C240" t="n">
         <v>4</v>
       </c>
       <c r="D240" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E240" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F240" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G240" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H240" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I240" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
       <c r="A242" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="B243" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="C243" t="n">
         <v>4</v>
       </c>
       <c r="D243" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E243" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F243" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G243" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H243" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I243" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
       <c r="B244" t="s">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="C244" t="n">
         <v>4</v>
       </c>
       <c r="D244" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E244" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F244" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G244" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H244" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I244" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
       <c r="A246" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
       <c r="B247" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="C247" t="n">
         <v>3.294</v>
       </c>
       <c r="D247" t="s">
-        <v>381</v>
+        <v>416</v>
       </c>
       <c r="E247" t="s">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="F247" t="s">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="G247" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H247" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I247" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
       <c r="A249" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
       <c r="B250" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="C250" t="n">
         <v>4</v>
       </c>
       <c r="D250" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E250" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F250" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G250" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H250" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I250" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9">
       <c r="A252" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
       <c r="B253" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="C253" t="n">
         <v>3.667</v>
       </c>
       <c r="D253" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="E253" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F253" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G253" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H253" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I253" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
       <c r="A255" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
       <c r="B256" t="s">
-        <v>388</v>
+        <v>424</v>
       </c>
       <c r="C256" t="n">
         <v>3.333</v>
       </c>
       <c r="D256" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E256" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="F256" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G256" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H256" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I256" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
       <c r="A258" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
       <c r="B259" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="C259" t="n">
         <v>3.958</v>
       </c>
       <c r="D259" t="s">
-        <v>390</v>
+        <v>426</v>
       </c>
       <c r="E259" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F259" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G259" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H259" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I259" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
       <c r="A261" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
       <c r="B262" t="s">
-        <v>392</v>
+        <v>428</v>
       </c>
       <c r="C262" t="n">
         <v>3.071</v>
       </c>
       <c r="D262" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="E262" t="s">
-        <v>393</v>
+        <v>429</v>
       </c>
       <c r="F262" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G262" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H262" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I262" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
       <c r="A264" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
       <c r="B265" t="s">
-        <v>395</v>
+        <v>431</v>
       </c>
       <c r="C265" t="n">
         <v>3.684</v>
       </c>
       <c r="D265" t="s">
-        <v>396</v>
+        <v>432</v>
       </c>
       <c r="E265" t="s">
-        <v>397</v>
+        <v>433</v>
       </c>
       <c r="F265" t="s">
-        <v>397</v>
+        <v>433</v>
       </c>
       <c r="G265" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H265" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I265" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9">
       <c r="A267" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
       <c r="B268" t="s">
-        <v>399</v>
+        <v>435</v>
       </c>
       <c r="C268" t="n">
         <v>3.389</v>
       </c>
       <c r="D268" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E268" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="F268" t="s">
-        <v>400</v>
+        <v>49</v>
       </c>
       <c r="G268" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H268" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I268" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
       <c r="B269" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C269" t="n">
         <v>3.454</v>
       </c>
       <c r="D269" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="E269" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F269" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G269" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H269" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I269" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
       <c r="A271" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
       <c r="B272" t="s">
-        <v>402</v>
+        <v>437</v>
       </c>
       <c r="C272" t="n">
         <v>3.4</v>
       </c>
       <c r="D272" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E272" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F272" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G272" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H272" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I272" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9">
       <c r="A274" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
       <c r="B275" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C275" t="n">
         <v>3.115</v>
       </c>
       <c r="D275" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E275" t="s">
-        <v>404</v>
+        <v>439</v>
       </c>
       <c r="F275" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="G275" t="s">
-        <v>405</v>
+        <v>440</v>
       </c>
       <c r="H275" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I275" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9">
       <c r="A277" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9">
       <c r="B278" t="s">
-        <v>407</v>
+        <v>442</v>
       </c>
       <c r="C278" t="n">
         <v>3.143</v>
       </c>
       <c r="D278" t="s">
-        <v>408</v>
+        <v>443</v>
       </c>
       <c r="E278" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F278" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G278" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H278" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8">
+        <v>253</v>
+      </c>
+      <c r="I278" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9">
       <c r="A280" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
       <c r="B281" t="s">
-        <v>410</v>
+        <v>445</v>
       </c>
       <c r="C281" t="n">
         <v>3.45</v>
       </c>
       <c r="D281" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E281" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F281" t="s">
-        <v>411</v>
+        <v>446</v>
       </c>
       <c r="G281" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H281" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I281" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9">
       <c r="A283" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9">
       <c r="B284" t="s">
-        <v>413</v>
+        <v>448</v>
       </c>
       <c r="C284" t="n">
         <v>3.719</v>
       </c>
       <c r="D284" t="s">
-        <v>414</v>
+        <v>449</v>
       </c>
       <c r="E284" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="F284" t="s">
-        <v>397</v>
+        <v>433</v>
       </c>
       <c r="G284" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H284" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I284" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9">
       <c r="B285" t="s">
-        <v>415</v>
+        <v>451</v>
       </c>
       <c r="C285" t="n">
         <v>3.08</v>
       </c>
       <c r="D285" t="s">
-        <v>416</v>
+        <v>452</v>
       </c>
       <c r="E285" t="s">
-        <v>417</v>
+        <v>453</v>
       </c>
       <c r="F285" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="G285" t="s">
-        <v>418</v>
+        <v>199</v>
       </c>
       <c r="H285" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8">
+        <v>346</v>
+      </c>
+      <c r="I285" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9">
       <c r="B286" t="s">
-        <v>419</v>
+        <v>454</v>
       </c>
       <c r="C286" t="n">
         <v>2.969</v>
       </c>
       <c r="D286" t="s">
-        <v>420</v>
+        <v>455</v>
       </c>
       <c r="E286" t="s">
-        <v>421</v>
+        <v>456</v>
       </c>
       <c r="F286" t="s">
-        <v>422</v>
+        <v>457</v>
       </c>
       <c r="G286" t="s">
-        <v>423</v>
+        <v>458</v>
       </c>
       <c r="H286" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8">
+        <v>459</v>
+      </c>
+      <c r="I286" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9">
       <c r="B287" t="s">
-        <v>425</v>
+        <v>461</v>
       </c>
       <c r="C287" t="n">
         <v>3.593</v>
       </c>
       <c r="D287" t="s">
-        <v>426</v>
+        <v>462</v>
       </c>
       <c r="E287" t="s">
-        <v>427</v>
+        <v>463</v>
       </c>
       <c r="F287" t="s">
-        <v>428</v>
+        <v>464</v>
       </c>
       <c r="G287" t="s">
-        <v>429</v>
+        <v>465</v>
       </c>
       <c r="H287" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I287" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9">
       <c r="B288" t="s">
-        <v>430</v>
+        <v>466</v>
       </c>
       <c r="C288" t="n">
         <v>2.866</v>
       </c>
       <c r="D288" t="s">
-        <v>431</v>
+        <v>467</v>
       </c>
       <c r="E288" t="s">
-        <v>432</v>
+        <v>468</v>
       </c>
       <c r="F288" t="s">
-        <v>420</v>
+        <v>455</v>
       </c>
       <c r="G288" t="s">
-        <v>433</v>
+        <v>156</v>
       </c>
       <c r="H288" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I288" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9">
       <c r="B289" t="s">
-        <v>402</v>
+        <v>437</v>
       </c>
       <c r="C289" t="n">
         <v>3.418</v>
       </c>
       <c r="D289" t="s">
-        <v>434</v>
+        <v>469</v>
       </c>
       <c r="E289" t="s">
-        <v>435</v>
+        <v>470</v>
       </c>
       <c r="F289" t="s">
-        <v>436</v>
+        <v>471</v>
       </c>
       <c r="G289" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H289" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I289" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9">
       <c r="B290" t="s">
-        <v>437</v>
+        <v>473</v>
       </c>
       <c r="C290" t="n">
         <v>2.907</v>
       </c>
       <c r="D290" t="s">
-        <v>438</v>
+        <v>474</v>
       </c>
       <c r="E290" t="s">
-        <v>439</v>
+        <v>475</v>
       </c>
       <c r="F290" t="s">
-        <v>440</v>
+        <v>476</v>
       </c>
       <c r="G290" t="s">
-        <v>441</v>
+        <v>477</v>
       </c>
       <c r="H290" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8">
+        <v>478</v>
+      </c>
+      <c r="I290" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9">
       <c r="B291" t="s">
-        <v>410</v>
+        <v>445</v>
       </c>
       <c r="C291" t="n">
         <v>2.481</v>
       </c>
       <c r="D291" t="s">
-        <v>411</v>
+        <v>446</v>
       </c>
       <c r="E291" t="s">
-        <v>443</v>
+        <v>479</v>
       </c>
       <c r="F291" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="G291" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="H291" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8">
+        <v>338</v>
+      </c>
+      <c r="I291" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9">
       <c r="B292" t="s">
-        <v>445</v>
+        <v>482</v>
       </c>
       <c r="C292" t="n">
         <v>3.074</v>
       </c>
       <c r="D292" t="s">
-        <v>446</v>
+        <v>483</v>
       </c>
       <c r="E292" t="s">
-        <v>447</v>
+        <v>484</v>
       </c>
       <c r="F292" t="s">
-        <v>448</v>
+        <v>485</v>
       </c>
       <c r="G292" t="s">
-        <v>449</v>
+        <v>486</v>
       </c>
       <c r="H292" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8">
+        <v>472</v>
+      </c>
+      <c r="I292" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9">
       <c r="A294" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9">
       <c r="B295" t="s">
-        <v>452</v>
+        <v>488</v>
       </c>
       <c r="C295" t="n">
         <v>3.5676</v>
       </c>
       <c r="D295" t="s">
-        <v>453</v>
+        <v>489</v>
       </c>
       <c r="E295" t="s">
-        <v>454</v>
+        <v>490</v>
       </c>
       <c r="F295" t="s">
-        <v>455</v>
+        <v>491</v>
       </c>
       <c r="G295" t="s">
-        <v>456</v>
+        <v>492</v>
       </c>
       <c r="H295" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8">
+        <v>493</v>
+      </c>
+      <c r="I295" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9">
       <c r="A297" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9">
       <c r="B298" t="s">
-        <v>459</v>
+        <v>496</v>
       </c>
       <c r="C298" t="n">
         <v>3.568</v>
       </c>
       <c r="D298" t="s">
-        <v>460</v>
+        <v>497</v>
       </c>
       <c r="E298" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="F298" t="s">
-        <v>461</v>
+        <v>254</v>
       </c>
       <c r="G298" t="s">
-        <v>462</v>
+        <v>498</v>
       </c>
       <c r="H298" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I298" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9">
       <c r="A300" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9">
       <c r="B301" t="s">
-        <v>415</v>
+        <v>451</v>
       </c>
       <c r="C301" t="n">
         <v>3.273</v>
       </c>
       <c r="D301" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E301" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F301" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G301" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H301" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I301" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9">
       <c r="A303" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9">
       <c r="B304" t="s">
-        <v>465</v>
+        <v>502</v>
       </c>
       <c r="C304" t="n">
         <v>3.053</v>
       </c>
       <c r="D304" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="E304" t="s">
-        <v>466</v>
+        <v>503</v>
       </c>
       <c r="F304" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="G304" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H304" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I304" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9">
       <c r="A306" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9">
       <c r="B307" t="s">
-        <v>425</v>
+        <v>461</v>
       </c>
       <c r="C307" t="n">
         <v>3.429</v>
       </c>
       <c r="D307" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E307" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="F307" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="G307" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H307" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I307" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9">
       <c r="A309" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9">
       <c r="B310" t="s">
-        <v>415</v>
+        <v>451</v>
       </c>
       <c r="C310" t="n">
         <v>3.769</v>
       </c>
       <c r="D310" t="s">
-        <v>469</v>
+        <v>506</v>
       </c>
       <c r="E310" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="F310" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G310" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H310" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I310" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9">
       <c r="A312" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9">
       <c r="B313" t="s">
-        <v>471</v>
+        <v>508</v>
       </c>
       <c r="C313" t="n">
         <v>3</v>
       </c>
       <c r="D313" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E313" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="F313" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G313" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H313" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I313" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9">
       <c r="A315" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9">
       <c r="B316" t="s">
-        <v>473</v>
+        <v>510</v>
       </c>
       <c r="C316" t="n">
         <v>3.556</v>
       </c>
       <c r="D316" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="E316" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F316" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G316" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H316" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I316" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9">
       <c r="A318" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9">
       <c r="B319" t="s">
-        <v>459</v>
+        <v>496</v>
       </c>
       <c r="C319" t="n">
         <v>3.6425</v>
       </c>
       <c r="D319" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="E319" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="F319" t="s">
-        <v>208</v>
+        <v>21</v>
       </c>
       <c r="G319" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H319" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I319" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9">
       <c r="A321" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9">
       <c r="B322" t="s">
-        <v>476</v>
+        <v>513</v>
       </c>
       <c r="C322" t="n">
         <v>3.8</v>
       </c>
       <c r="D322" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E322" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F322" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G322" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H322" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I322" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9">
       <c r="A324" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9">
       <c r="B325" t="s">
-        <v>407</v>
+        <v>442</v>
       </c>
       <c r="C325" t="n">
         <v>3.667</v>
       </c>
       <c r="D325" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="E325" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F325" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G325" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H325" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I325" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9">
       <c r="A327" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9">
       <c r="B328" t="s">
-        <v>479</v>
+        <v>516</v>
       </c>
       <c r="C328" t="n">
         <v>4</v>
       </c>
       <c r="D328" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E328" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F328" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G328" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H328" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I328" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9">
       <c r="A330" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
-        <v>481</v>
+        <v>518</v>
       </c>
       <c r="C331" t="n">
         <v>3.4</v>
       </c>
       <c r="D331" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E331" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F331" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G331" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H331" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="I331" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
